--- a/src/test/resources/templates/common-functions.xlsx
+++ b/src/test/resources/templates/common-functions.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="26865" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$3:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +29,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>RJ</author>
+    <author>bcsoft</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -43,22 +43,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="F6")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:each(items="rows" var="r" lastCell="F4")</t>
+          <t>jx:area(lastCell="C7")</t>
         </r>
       </text>
     </comment>
@@ -67,81 +52,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Stage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>YearMonth</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Str</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>${num}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${fn.format(date, 'yyyy/MM/dd')}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${fn.format(datetime, 'yyyy/MM/dd HH:mm')}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${fn.round(num, 2)}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${fn.format(num, '#,###.00')}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${time}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${fn.format(time, 'HH:mm')}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${datetime}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${date}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${str}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin Value (toString())</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formatted Value</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${fn.toInt(str)}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>roundNumber</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>formatNumber</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>formatDateTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>formatDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>formatTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>toInt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Remark</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generated Time：${ts}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${empty(r.remark) ? '[NONE]' : r.remark}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${fn.toInt(fn.format(r.yearMonth, 'yyyyMM'))}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${r.str}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Money</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${r.money}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${stageLabels[r.stage]}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Excel template test with some custom function</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${fn.format(r.dateTime, 'yyyy-MM-dd HH:mm:ss')}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage：${stage}, Search：${search?:'NONE'}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Custom Functions: fn.format, fn.toInt</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="\$#,##0.00;\-\$#,##0.00"/>
-  </numFmts>
-  <fonts count="10">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -164,41 +161,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF31859C"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -229,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -252,43 +219,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -296,20 +262,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -395,97 +358,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,99 +626,100 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="21.95" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" ht="24" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="6" customFormat="1">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="63" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/templates/common-functions.xlsx
+++ b/src/test/resources/templates/common-functions.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github-simter\simter-build\simter-jxls-ext\src\test\resources\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="26865" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView windowWidth="27765" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -17,12 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -32,18 +22,16 @@
     <author>bcsoft</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="C7")</t>
+          <t>jx:area(lastCell="C11")</t>
         </r>
       </text>
     </comment>
@@ -52,104 +40,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Origin Value (toString())</t>
+  </si>
+  <si>
+    <t>Formatted Value</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
   <si>
     <t>${num}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${fn.round(num, 2)}</t>
+  </si>
+  <si>
+    <t>roundNumber</t>
+  </si>
+  <si>
+    <t>${fn.format(num, '#,###.00')}</t>
+  </si>
+  <si>
+    <t>formatNumber</t>
+  </si>
+  <si>
+    <t>${datetime}</t>
+  </si>
+  <si>
+    <t>${fn.format(datetime, 'yyyy/MM/dd HH:mm')}</t>
+  </si>
+  <si>
+    <t>formatDateTime</t>
+  </si>
+  <si>
+    <t>${date}</t>
   </si>
   <si>
     <t>${fn.format(date, 'yyyy/MM/dd')}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${fn.format(datetime, 'yyyy/MM/dd HH:mm')}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${fn.round(num, 2)}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${fn.format(num, '#,###.00')}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>formatDate</t>
   </si>
   <si>
     <t>${time}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>${fn.format(time, 'HH:mm')}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${datetime}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${date}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>formatTime</t>
   </si>
   <si>
     <t>${str}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Origin Value (toString())</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Formatted Value</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>${fn.toInt(str)}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>roundNumber</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>formatNumber</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>formatDateTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>formatDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>formatTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>toInt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${strings}</t>
+  </si>
+  <si>
+    <t>${fn.join(strings)}</t>
+  </si>
+  <si>
+    <t>join with ", "</t>
+  </si>
+  <si>
+    <t>${fn.join(strings, '-')}</t>
+  </si>
+  <si>
+    <t>join with "-"</t>
+  </si>
+  <si>
+    <t>${beans}</t>
+  </si>
+  <si>
+    <t>${fn.joinProperty(beans, 'p1')}</t>
+  </si>
+  <si>
+    <t>joinProperty with ", "</t>
+  </si>
+  <si>
+    <t>${fn.joinProperty(beans, 'p1', '-')}</t>
+  </si>
+  <si>
+    <t>joinProperty with "-"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -157,37 +154,314 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -195,8 +469,56 @@
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -245,100 +567,391 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="解释性文本" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF9C0006"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFC7CE"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF31859C"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="009C0006"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFC7CE"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="0031859C"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -352,9 +965,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -403,7 +1013,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -438,7 +1048,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -612,114 +1222,152 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="45" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.95" customHeight="1">
+    <row r="1" ht="21.95" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:3">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
+    <row r="8" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:3">
+      <c r="A8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
+    <row r="9" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
+    <row r="10" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:3">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
+    <row r="11" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="63" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.236220472440945" right="0.236220472440945" top="0.236220472440945" bottom="0.236220472440945" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="63" firstPageNumber="0" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>